--- a/GeoDataProcessing/files/Test_file.xlsx
+++ b/GeoDataProcessing/files/Test_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul9\Desktop\Informatique\Projets Python\GeoDataProcessing-Pycharm\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE75823-AC7F-48F3-B249-3BE8ABBD499A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C2EF8-C83D-496B-93E4-C6A86AD76E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="C8:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
